--- a/biology/Botanique/Jean-Louis_Roard/Jean-Louis_Roard.xlsx
+++ b/biology/Botanique/Jean-Louis_Roard/Jean-Louis_Roard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Roard, œnologue, était directeur des teintures des Manufactures impériales et l'auteur d'un ouvrage sur la culture de la vigne. Il est né le 5 septembre 1775 à Noyers[1] et mort le 11 novembre 1853 à Paris[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Roard, œnologue, était directeur des teintures des Manufactures impériales et l'auteur d'un ouvrage sur la culture de la vigne. Il est né le 5 septembre 1775 à Noyers et mort le 11 novembre 1853 à Paris.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abrégé du traité théorique et pratique sur la culture de la vigne, avec l'art de faire le vin, les eaux-de-vie, esprit de vin, vinaigres simples et composés par MM. Jean-Antoine Chaptal, François Rozier, Antoine Parmentier et Dussieux, Paris, Arthus-Bertrand, 1806. C'est à la demande de Jean-Antoine Chaptal, alors ministre, qu'il rédigea ce livre. C'est un manuel pratique spécialement destiné aux vignerons, rédigé d'après l'ouvrage fondamental de Chaptal, Rozier, Parmentier paru en 1801 en 2 volumes. Références à Maupin, Olivier de Serres et Rozier. - Nouvelles découvertes sur la fermentation, améliorations des vins médiocres, alambic et fourneau de nouvelle construction, etc.</t>
         </is>
